--- a/specifications/prototype_module_1_V_2.xlsx
+++ b/specifications/prototype_module_1_V_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26420" windowHeight="15500" tabRatio="198"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13420" tabRatio="198"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nombre Itération</t>
   </si>
@@ -54,6 +54,9 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Maturité</t>
+  </si>
 </sst>
 </file>
 
@@ -70,11 +73,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="72"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -110,6 +108,11 @@
       <sz val="16"/>
       <color theme="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
     </font>
   </fonts>
   <fills count="4">
@@ -178,48 +181,48 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -944,7 +947,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -973,6 +976,9 @@
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="20">
       <c r="A3" s="8">
@@ -983,6 +989,10 @@
       </c>
       <c r="C3" s="10">
         <v>7</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f>"01/01/2018"</f>
+        <v>01/01/2018</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20">
@@ -1022,7 +1032,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
